--- a/data/CardConfig.xlsx
+++ b/data/CardConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\projectRes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\lgyyxyres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2382008-9EE1-461D-AEA0-CCD7BCC83FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72DA341-8FD4-477B-A0A9-5EE561124D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1845" yWindow="4440" windowWidth="34875" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,7 +723,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -741,6 +743,9 @@
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="B1">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">

--- a/data/CardConfig.xlsx
+++ b/data/CardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\lgyyxyres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72DA341-8FD4-477B-A0A9-5EE561124D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A94283-CA63-4BEB-847F-80D8A52DB290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1845" yWindow="4440" windowWidth="34875" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -744,7 +744,7 @@
         <v>56</v>
       </c>
       <c r="B1">
-        <v>11</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">

--- a/data/CardConfig.xlsx
+++ b/data/CardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\lgyyxyres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A94283-CA63-4BEB-847F-80D8A52DB290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72DA341-8FD4-477B-A0A9-5EE561124D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1845" yWindow="4440" windowWidth="34875" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -744,7 +744,7 @@
         <v>56</v>
       </c>
       <c r="B1">
-        <v>111</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">

--- a/data/CardConfig.xlsx
+++ b/data/CardConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\lgyyxyres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72DA341-8FD4-477B-A0A9-5EE561124D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8D8F51-3838-460C-966F-67AB704B9673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="4440" windowWidth="34875" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1410" windowWidth="34875" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,149 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>根宝</author>
-  </authors>
-  <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{E84D3CBD-D29E-4BF6-827E-50E840B58693}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>根宝:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-行为id数组，记录当前卡牌有哪些基本行为，比如攻击、加盾、回血。右侧的属性值，必须一一对应actionId</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{BB3CDCBD-415F-4505-833F-C869528735AE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>根宝:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1 = 单体
-0 = 随机
-999 = 全体</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{3DC1D88D-B933-4F6C-A60F-5FA141BA5BFE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>根宝:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1 = 玩家
-2 = 怪
-3 = 玩家+怪</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{43D66259-44E0-4404-99EA-AA9E56DA564C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>根宝:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-段数
-空值默认为1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>根宝:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-参数1的值：数组表示[基础值和升级后的值]</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t>string</t>
   </si>
@@ -199,9 +58,6 @@
     <t>card_002</t>
   </si>
   <si>
-    <t>为己方增加${factor1}点护盾</t>
-  </si>
-  <si>
     <t>card_003</t>
   </si>
   <si>
@@ -209,189 +65,292 @@
   </si>
   <si>
     <t>card_004</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>actionIds</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>number[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>number[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[5]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[3]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[999]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>流星雨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>魔法飞弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>晶体盾</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>弹射飞弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[6]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[4]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>level1Segment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>level2Segment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[9]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[8]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>card_005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[2,2]</t>
   </si>
   <si>
     <t>脆弱飞弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>level1Factor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>level2Factor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击敌方单体,造成${factor1}点伤害</t>
-  </si>
-  <si>
-    <t>攻击全体敌人,分别造成${factor1}点伤害</t>
-  </si>
-  <si>
-    <t>释放${segement}段攻击,每段攻击选取随机敌人,造成${factor1}点伤害</t>
-  </si>
-  <si>
-    <t>攻击敌方单体,造成${factor1}点伤害,并使对方易伤${round1}回合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>level1BuffId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>level2BuffId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[attack]</t>
   </si>
   <si>
     <t>[attack]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[defense]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>targetNum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[0]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>targetType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[2]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[buff_vulnerability]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$end$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为id数组，记录当前卡牌有哪些基本行为，比如攻击、加盾、回血。右侧的属性值，必须一一对应actionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级一段数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级一数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填默认为等级一的值，其他同理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 = 玩家，2 = 怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 = 单体， 0 = 随机， 999 = 全体，等级永远不会影响作用数量（难以开发）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffTargetNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>card_006</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$end$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鸦坐飞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[action_text_001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[action_text_002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[action_text_005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[action_text_006]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[action_text_001,action_text_007]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[action_text_001,action_text_002,action_text_003,action_text_007,action_text_008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,1,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,1,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[buff_vulnerability,buff_weakness]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8,6,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌解锁等级（玩家等级，相当于原神的大世界等级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[12,8,8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[addShield]</t>
+  </si>
+  <si>
+    <t>[attack,addShield,recover]</t>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要指定对象执行 1-&gt;需要 不填-&gt;不需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needChooseTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -406,21 +365,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -443,9 +387,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -720,34 +670,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="72.875" customWidth="1"/>
-    <col min="5" max="5" width="31.125" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="9" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="16.125" customWidth="1"/>
-    <col min="11" max="11" width="13.25" customWidth="1"/>
-    <col min="12" max="14" width="14.875" customWidth="1"/>
-    <col min="15" max="16" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="37.875" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="14.875" customWidth="1"/>
+    <col min="12" max="12" width="41.75" customWidth="1"/>
+    <col min="13" max="15" width="14.875" customWidth="1"/>
+    <col min="16" max="16" width="14.25" customWidth="1"/>
+    <col min="17" max="17" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1">
-        <v>11</v>
+      <c r="K1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -757,44 +734,50 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
+      <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
+      <c r="G2" t="s">
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -807,41 +790,47 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="L3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>38</v>
+      <c r="Q3" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -849,38 +838,45 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>100</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1000</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -888,185 +884,249 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>12</v>
-      </c>
-      <c r="E5">
-        <v>200</v>
-      </c>
-      <c r="F5">
-        <v>2000</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>150</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E6">
-        <v>150</v>
-      </c>
-      <c r="F6">
-        <v>1000</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="P6" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>100</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1000</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="M8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
-        <v>19</v>
+      <c r="P8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="1">
+        <v>999</v>
+      </c>
+      <c r="F9">
+        <v>300</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/CardConfig.xlsx
+++ b/data/CardConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\lgyyxyres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8D8F51-3838-460C-966F-67AB704B9673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA81E312-EBD8-4257-AF58-7850FA43179B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1410" windowWidth="34875" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9015" yWindow="3210" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
   <si>
     <t>string</t>
   </si>
@@ -37,306 +37,310 @@
     <t>mpCost</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>buyPrice</t>
+  </si>
+  <si>
+    <t>upgradePrice</t>
+  </si>
+  <si>
+    <t>[1,1]</t>
+  </si>
+  <si>
+    <t>card_002</t>
+  </si>
+  <si>
+    <t>card_003</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>card_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[999]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流星雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法飞弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶体盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹射飞弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level1Segment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level2Segment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,2]</t>
+  </si>
+  <si>
+    <t>脆弱飞弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level1Factor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level2Factor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$end$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为id数组，记录当前卡牌有哪些基本行为，比如攻击、加盾、回血。右侧的属性值，必须一一对应actionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级一段数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级一数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填默认为等级一的值，其他同理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 = 玩家，2 = 怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 = 单体， 0 = 随机， 999 = 全体，等级永远不会影响作用数量（难以开发）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffTargetNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鸦坐飞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,1,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,1,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8,6,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌解锁等级（玩家等级，相当于原神的大世界等级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[12,8,8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要指定对象执行 1-&gt;需要 不填-&gt;不需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needChooseTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>buyPrice</t>
-  </si>
-  <si>
-    <t>upgradePrice</t>
-  </si>
-  <si>
-    <t>card_001</t>
-  </si>
-  <si>
-    <t>[1,1]</t>
-  </si>
-  <si>
-    <t>card_002</t>
-  </si>
-  <si>
-    <t>card_003</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>card_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actionIds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[999]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流星雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法飞弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶体盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹射飞弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level1Segment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level2Segment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[9]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2,2]</t>
-  </si>
-  <si>
-    <t>脆弱飞弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level1Factor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level2Factor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level1BuffId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[attack]</t>
-  </si>
-  <si>
-    <t>[attack]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[buff_vulnerability]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$end$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行为id数组，记录当前卡牌有哪些基本行为，比如攻击、加盾、回血。右侧的属性值，必须一一对应actionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级一段数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级一数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不填默认为等级一的值，其他同理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 = 玩家，2 = 怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 = 单体， 0 = 随机， 999 = 全体，等级永远不会影响作用数量（难以开发）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffTargetNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3,3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌鸦坐飞机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[action_text_001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[action_text_002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[action_text_005]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[action_text_006]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[action_text_001,action_text_007]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[action_text_001,action_text_002,action_text_003,action_text_007,action_text_008]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,1,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2,1,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[buff_vulnerability,buff_weakness]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[8,6,5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌解锁等级（玩家等级，相当于原神的大世界等级）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[12,8,8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[addShield]</t>
-  </si>
-  <si>
-    <t>[attack,addShield,recover]</t>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否需要指定对象执行 1-&gt;需要 不填-&gt;不需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>needChooseTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["attack"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["addShield"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["attack"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["attack","addShield","recover"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["buff_vulnerability"]</t>
+  </si>
+  <si>
+    <t>["buff_vulnerability","buff_weakness"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["action_text_001","action_text_007"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["action_text_001"]</t>
+  </si>
+  <si>
+    <t>["action_text_002"]</t>
+  </si>
+  <si>
+    <t>["action_text_005"]</t>
+  </si>
+  <si>
+    <t>["action_text_006"]</t>
+  </si>
+  <si>
+    <t>["action_text_001","action_text_002","action_text_003","action_text_007","action_text_008"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌描述，buff必须放在所有行为后。描述数组长度必须=行为id数组长度+buff数组长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,6 +359,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -673,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,32 +701,35 @@
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -735,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -747,34 +755,34 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -784,64 +792,64 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
+      <c r="A4" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -853,24 +861,24 @@
         <v>1000</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -878,16 +886,16 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -899,38 +907,38 @@
         <v>2000</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -942,38 +950,38 @@
         <v>1000</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -985,40 +993,40 @@
         <v>1000</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1030,28 +1038,28 @@
         <v>200</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -1059,16 +1067,16 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E9" s="1">
         <v>999</v>
@@ -1080,28 +1088,28 @@
         <v>1000</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -1109,7 +1117,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">

--- a/data/CardConfig.xlsx
+++ b/data/CardConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\lgyyxyres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA81E312-EBD8-4257-AF58-7850FA43179B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0300ABAF-8C48-4F3E-B01F-163907739105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9015" yWindow="3210" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="2640" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>string</t>
   </si>
@@ -37,9 +37,6 @@
     <t>mpCost</t>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
     <t>buyPrice</t>
   </si>
   <si>
@@ -55,180 +52,53 @@
     <t>card_003</t>
   </si>
   <si>
-    <t>[1]</t>
-  </si>
-  <si>
     <t>card_004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>流星雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法飞弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶体盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹射飞弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,2]</t>
+  </si>
+  <si>
+    <t>脆弱飞弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$end$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为id数组，记录当前卡牌有哪些基本行为，比如攻击、加盾、回血。右侧的属性值，必须一一对应actionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>string[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>actionIds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[999]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流星雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法飞弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶体盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹射飞弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level1Segment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level2Segment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[9]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2,2]</t>
-  </si>
-  <si>
-    <t>脆弱飞弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level1Factor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level2Factor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$end$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行为id数组，记录当前卡牌有哪些基本行为，比如攻击、加盾、回血。右侧的属性值，必须一一对应actionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级一段数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级一数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不填默认为等级一的值，其他同理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 = 玩家，2 = 怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 = 单体， 0 = 随机， 999 = 全体，等级永远不会影响作用数量（难以开发）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffTargetNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>card_006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,22 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,1,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2,1,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[8,6,5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卡牌解锁等级（玩家等级，相当于原神的大世界等级）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[12,8,8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>buffIds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>card_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,29 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>["attack"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["addShield"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["attack"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["attack","addShield","recover"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["buff_vulnerability"]</t>
-  </si>
-  <si>
-    <t>["buff_vulnerability","buff_weakness"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>["action_text_001","action_text_007"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,6 +165,21 @@
   <si>
     <t>卡牌描述，buff必须放在所有行为后。描述数组长度必须=行为id数组长度+buff数组长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_skill_001</t>
   </si>
 </sst>
 </file>
@@ -676,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -690,49 +528,37 @@
     <col min="6" max="6" width="12.75" customWidth="1"/>
     <col min="7" max="7" width="14.625" customWidth="1"/>
     <col min="8" max="8" width="37.875" customWidth="1"/>
-    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="19.875" customWidth="1"/>
     <col min="10" max="10" width="12.125" customWidth="1"/>
     <col min="11" max="11" width="14.875" customWidth="1"/>
     <col min="12" max="12" width="41.75" customWidth="1"/>
     <col min="13" max="15" width="14.875" customWidth="1"/>
     <col min="16" max="16" width="14.25" customWidth="1"/>
-    <col min="17" max="17" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -743,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -755,37 +581,20 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -793,63 +602,46 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -861,41 +653,30 @@
         <v>1000</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -907,38 +688,30 @@
         <v>2000</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -949,39 +722,26 @@
       <c r="G6">
         <v>1000</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="H6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -992,41 +752,26 @@
       <c r="G7">
         <v>1000</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1037,46 +782,29 @@
       <c r="G8">
         <v>200</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H8" s="1"/>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1">
         <v>999</v>
@@ -1087,47 +815,29 @@
       <c r="G9">
         <v>1000</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H9" s="1"/>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
